--- a/app/config/tables/seguimento/forms/dia01/dia01.xlsx
+++ b/app/config/tables/seguimento/forms/dia01/dia01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\dia01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68DBEEE-3BCF-4283-85B1-4903421239DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A8C928-70C9-40E7-AFD2-C6A2AC63D2D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="13020" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14760" yWindow="15780" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1342,10 +1342,10 @@
   <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
